--- a/file/bu-cheon.xlsx
+++ b/file/bu-cheon.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C30221-A2B2-402B-84B2-A7B6B8A09524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A7E892-6061-41DC-861C-83F31F1AE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40650" yWindow="5565" windowWidth="17280" windowHeight="9960" xr2:uid="{49073B55-E0DB-4A88-A833-DE56CC746EA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{49073B55-E0DB-4A88-A833-DE56CC746EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>삼보</t>
   </si>
@@ -635,13 +624,26 @@
   </si>
   <si>
     <t>옥길호반베르디움</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힐스테이트소사역</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +680,13 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -693,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -716,13 +725,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +757,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,39 +792,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -850,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -961,6 +987,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -969,13 +1002,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1040,31 +1066,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4485D9-722F-4C14-8CC3-D56D75B67A55}">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1780,7 +1786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>113065</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>157340</v>
       </c>
@@ -2666,6 +2672,14 @@
       </c>
       <c r="B198" s="1" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="5">
+        <v>145661</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
